--- a/data/outputs/能源化工元源数据文件/31Journal of Biobased Materials and Bioenergy.xlsx
+++ b/data/outputs/能源化工元源数据文件/31Journal of Biobased Materials and Bioenergy.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ84"/>
+  <dimension ref="A1:BR84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +934,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1142,6 +1148,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1350,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1556,6 +1564,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1773,6 +1782,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1990,6 +2000,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2203,6 +2214,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2412,6 +2424,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2621,6 +2634,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2830,6 +2844,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3035,6 +3050,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3240,6 +3256,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3457,6 +3474,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3674,6 +3692,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3883,6 +3902,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4092,6 +4112,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4301,6 +4322,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4510,6 +4532,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4719,6 +4742,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4928,6 +4952,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5137,6 +5162,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5346,6 +5372,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5559,6 +5586,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5764,6 +5792,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5973,6 +6002,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6174,6 +6204,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6391,6 +6422,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6600,6 +6632,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6801,6 +6834,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7002,6 +7036,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7203,6 +7238,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7412,6 +7448,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7621,6 +7658,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7822,6 +7860,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8035,6 +8074,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8248,6 +8288,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8457,6 +8498,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8670,6 +8712,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8887,6 +8930,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9104,6 +9148,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9317,6 +9362,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9526,6 +9572,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9743,6 +9790,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9976,6 +10024,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10205,6 +10254,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10422,6 +10472,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10651,6 +10702,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10872,6 +10924,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11093,6 +11146,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11306,6 +11360,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11531,6 +11586,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11752,6 +11808,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11965,6 +12022,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12186,6 +12244,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12411,6 +12470,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12636,6 +12696,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12853,6 +12914,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13082,6 +13144,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13303,6 +13366,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13532,6 +13596,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13753,6 +13818,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13970,6 +14036,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14191,6 +14258,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14416,6 +14484,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14601,6 +14670,11 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr">
+        <is>
+          <t>4564949</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14810,6 +14884,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15019,6 +15094,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15228,6 +15304,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15429,6 +15506,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15634,6 +15712,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15843,6 +15922,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16052,6 +16132,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16253,6 +16334,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16454,6 +16536,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16655,6 +16738,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16856,6 +16940,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17057,6 +17142,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17254,6 +17340,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17451,6 +17538,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17652,6 +17740,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17853,6 +17942,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18050,6 +18140,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18259,6 +18350,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
